--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvhkc\Certificate-Launchpad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C0877-02F3-4794-B5E4-24F21C37BD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="3098" yWindow="3098" windowWidth="16200" windowHeight="9847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NAME</t>
   </si>
@@ -19,122 +28,50 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Dhanraj Chavan</t>
+    <t>Solstxce</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>dc6707914@gmail.com</t>
-    </r>
+    <t xml:space="preserve"> kvhkc2332@gmail.com</t>
   </si>
   <si>
-    <t>Dhanraj</t>
+    <t>Hitesh</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>dhanraj.ecellkitcoek@gmail.com</t>
-    </r>
+    <t xml:space="preserve"> 99220040586@klu.ac.in</t>
   </si>
   <si>
-    <t>Dhanraj Sudhir Chavan</t>
+    <t>Vineeth</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>infytracer@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Ankita</t>
-  </si>
-  <si>
-    <t>ankitrai326.com</t>
+    <t xml:space="preserve"> gvsskvineeth@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -142,61 +79,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,27 +95,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffd965"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFD965"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -427,7 +375,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -446,7 +394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -476,7 +424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -502,7 +450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -528,7 +476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -554,7 +502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -580,7 +528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,9 +645,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -716,7 +670,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -735,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -787,7 +741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,9 +936,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -998,7 +958,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1017,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,77 +1228,78 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1719" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1"/>
     </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2"/>
     </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3"/>
     </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>9</v>
-      </c>
+      <c r="C4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="dc6707914@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="dhanraj.ecellkitcoek@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display="infytracer@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
